--- a/designDocuments/databaseDesignDocument/01_データベース設計書_v1.3.xlsx
+++ b/designDocuments/databaseDesignDocument/01_データベース設計書_v1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshitakanta/Desktop/prodate/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC3EA4-C64A-E442-AA4C-33679D3BA796}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E7A927-C090-F44F-9B0F-30EBB555F7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="177">
   <si>
     <t>No</t>
   </si>
@@ -1318,6 +1318,10 @@
   </si>
   <si>
     <t>最終確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2835,13 +2839,94 @@
     <xf numFmtId="177" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2862,86 +2947,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2961,10 +2971,46 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2979,10 +3025,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2991,93 +3079,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3111,6 +3115,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3134,15 +3147,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -4528,7 +4532,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AN49" sqref="AN49"/>
     </sheetView>
   </sheetViews>
@@ -4964,21 +4968,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="163" t="s">
+      <c r="U3" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="189">
+      <c r="V3" s="180"/>
+      <c r="W3" s="181">
         <v>43969</v>
       </c>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="165"/>
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="182"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="180"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -5091,20 +5095,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="176"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="166"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -5122,82 +5126,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="177" t="s">
+      <c r="B8" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="185"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="175"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="173" t="s">
+      <c r="W8" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173" t="s">
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173" t="s">
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="187"/>
-      <c r="P9" s="187"/>
-      <c r="Q9" s="188"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="178"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="190" t="s">
+      <c r="W9" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="192"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="190" t="s">
+      <c r="X9" s="184"/>
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="184"/>
+      <c r="AB9" s="185"/>
+      <c r="AC9" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="192"/>
+      <c r="AD9" s="184"/>
+      <c r="AE9" s="185"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -5223,15 +5227,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="193"/>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="195"/>
-      <c r="AC10" s="193"/>
-      <c r="AD10" s="194"/>
-      <c r="AE10" s="195"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="188"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="188"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="188"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -5257,15 +5261,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="194"/>
-      <c r="Y11" s="195"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="193"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="195"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="188"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="188"/>
+      <c r="AC11" s="186"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -5291,15 +5295,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="198"/>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="197"/>
-      <c r="AB12" s="198"/>
-      <c r="AC12" s="196"/>
-      <c r="AD12" s="197"/>
-      <c r="AE12" s="198"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="191"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="191"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -5398,106 +5402,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="192" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="172"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="172"/>
-      <c r="AA16" s="172"/>
-      <c r="AB16" s="172"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="172"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="192"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="192"/>
+      <c r="S16" s="192"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="192"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="172"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="172"/>
-      <c r="U17" s="172"/>
-      <c r="V17" s="172"/>
-      <c r="W17" s="172"/>
-      <c r="X17" s="172"/>
-      <c r="Y17" s="172"/>
-      <c r="Z17" s="172"/>
-      <c r="AA17" s="172"/>
-      <c r="AB17" s="172"/>
-      <c r="AC17" s="172"/>
-      <c r="AD17" s="172"/>
-      <c r="AE17" s="172"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="192"/>
+      <c r="AB17" s="192"/>
+      <c r="AC17" s="192"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="192"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="172"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="192"/>
+      <c r="AC18" s="192"/>
+      <c r="AD18" s="192"/>
+      <c r="AE18" s="192"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5640,416 +5644,416 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="163" t="s">
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="163" t="s">
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="163" t="s">
+      <c r="K23" s="182"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="182"/>
+      <c r="O23" s="182"/>
+      <c r="P23" s="182"/>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="182"/>
+      <c r="S23" s="182"/>
+      <c r="T23" s="182"/>
+      <c r="U23" s="182"/>
+      <c r="V23" s="182"/>
+      <c r="W23" s="182"/>
+      <c r="X23" s="182"/>
+      <c r="Y23" s="182"/>
+      <c r="Z23" s="182"/>
+      <c r="AA23" s="182"/>
+      <c r="AB23" s="180"/>
+      <c r="AC23" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="165"/>
+      <c r="AD23" s="182"/>
+      <c r="AE23" s="180"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="166">
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="193">
         <v>43969</v>
       </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169" t="s">
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170"/>
-      <c r="U24" s="170"/>
-      <c r="V24" s="170"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="163" t="s">
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="197"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="197"/>
+      <c r="U24" s="197"/>
+      <c r="V24" s="197"/>
+      <c r="W24" s="197"/>
+      <c r="X24" s="197"/>
+      <c r="Y24" s="197"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="197"/>
+      <c r="AB24" s="198"/>
+      <c r="AC24" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="165"/>
+      <c r="AD24" s="182"/>
+      <c r="AE24" s="180"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="166">
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="193">
         <v>43971</v>
       </c>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169" t="s">
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-      <c r="V25" s="170"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="171"/>
-      <c r="AC25" s="163" t="s">
+      <c r="K25" s="197"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="197"/>
+      <c r="P25" s="197"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="197"/>
+      <c r="V25" s="197"/>
+      <c r="W25" s="197"/>
+      <c r="X25" s="197"/>
+      <c r="Y25" s="197"/>
+      <c r="Z25" s="197"/>
+      <c r="AA25" s="197"/>
+      <c r="AB25" s="198"/>
+      <c r="AC25" s="179" t="s">
         <v>134</v>
       </c>
-      <c r="AD25" s="164"/>
-      <c r="AE25" s="165"/>
+      <c r="AD25" s="182"/>
+      <c r="AE25" s="180"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="179" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="166">
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="193">
         <v>43972</v>
       </c>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169" t="s">
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="196" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170"/>
-      <c r="AB26" s="171"/>
-      <c r="AC26" s="163" t="s">
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="197"/>
+      <c r="O26" s="197"/>
+      <c r="P26" s="197"/>
+      <c r="Q26" s="197"/>
+      <c r="R26" s="197"/>
+      <c r="S26" s="197"/>
+      <c r="T26" s="197"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="197"/>
+      <c r="W26" s="197"/>
+      <c r="X26" s="197"/>
+      <c r="Y26" s="197"/>
+      <c r="Z26" s="197"/>
+      <c r="AA26" s="197"/>
+      <c r="AB26" s="198"/>
+      <c r="AC26" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="165"/>
+      <c r="AD26" s="182"/>
+      <c r="AE26" s="180"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="166">
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="193">
         <v>43976</v>
       </c>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="169" t="s">
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="196" t="s">
         <v>175</v>
       </c>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170"/>
-      <c r="AB27" s="171"/>
-      <c r="AC27" s="163" t="s">
+      <c r="K27" s="197"/>
+      <c r="L27" s="197"/>
+      <c r="M27" s="197"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="197"/>
+      <c r="P27" s="197"/>
+      <c r="Q27" s="197"/>
+      <c r="R27" s="197"/>
+      <c r="S27" s="197"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
+      <c r="W27" s="197"/>
+      <c r="X27" s="197"/>
+      <c r="Y27" s="197"/>
+      <c r="Z27" s="197"/>
+      <c r="AA27" s="197"/>
+      <c r="AB27" s="198"/>
+      <c r="AC27" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="AD27" s="164"/>
-      <c r="AE27" s="165"/>
+      <c r="AD27" s="182"/>
+      <c r="AE27" s="180"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="170"/>
-      <c r="W28" s="170"/>
-      <c r="X28" s="170"/>
-      <c r="Y28" s="170"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="170"/>
-      <c r="AB28" s="171"/>
-      <c r="AC28" s="163"/>
-      <c r="AD28" s="164"/>
-      <c r="AE28" s="165"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="197"/>
+      <c r="P28" s="197"/>
+      <c r="Q28" s="197"/>
+      <c r="R28" s="197"/>
+      <c r="S28" s="197"/>
+      <c r="T28" s="197"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="197"/>
+      <c r="X28" s="197"/>
+      <c r="Y28" s="197"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="197"/>
+      <c r="AB28" s="198"/>
+      <c r="AC28" s="179"/>
+      <c r="AD28" s="182"/>
+      <c r="AE28" s="180"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="170"/>
-      <c r="T29" s="170"/>
-      <c r="U29" s="170"/>
-      <c r="V29" s="170"/>
-      <c r="W29" s="170"/>
-      <c r="X29" s="170"/>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170"/>
-      <c r="AB29" s="171"/>
-      <c r="AC29" s="163"/>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="197"/>
+      <c r="N29" s="197"/>
+      <c r="O29" s="197"/>
+      <c r="P29" s="197"/>
+      <c r="Q29" s="197"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="197"/>
+      <c r="V29" s="197"/>
+      <c r="W29" s="197"/>
+      <c r="X29" s="197"/>
+      <c r="Y29" s="197"/>
+      <c r="Z29" s="197"/>
+      <c r="AA29" s="197"/>
+      <c r="AB29" s="198"/>
+      <c r="AC29" s="179"/>
+      <c r="AD29" s="182"/>
+      <c r="AE29" s="180"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170"/>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170"/>
-      <c r="W30" s="170"/>
-      <c r="X30" s="170"/>
-      <c r="Y30" s="170"/>
-      <c r="Z30" s="170"/>
-      <c r="AA30" s="170"/>
-      <c r="AB30" s="171"/>
-      <c r="AC30" s="163"/>
-      <c r="AD30" s="164"/>
-      <c r="AE30" s="165"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="197"/>
+      <c r="L30" s="197"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="197"/>
+      <c r="O30" s="197"/>
+      <c r="P30" s="197"/>
+      <c r="Q30" s="197"/>
+      <c r="R30" s="197"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="197"/>
+      <c r="U30" s="197"/>
+      <c r="V30" s="197"/>
+      <c r="W30" s="197"/>
+      <c r="X30" s="197"/>
+      <c r="Y30" s="197"/>
+      <c r="Z30" s="197"/>
+      <c r="AA30" s="197"/>
+      <c r="AB30" s="198"/>
+      <c r="AC30" s="179"/>
+      <c r="AD30" s="182"/>
+      <c r="AE30" s="180"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-      <c r="V31" s="170"/>
-      <c r="W31" s="170"/>
-      <c r="X31" s="170"/>
-      <c r="Y31" s="170"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="170"/>
-      <c r="AB31" s="171"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="164"/>
-      <c r="AE31" s="165"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="197"/>
+      <c r="W31" s="197"/>
+      <c r="X31" s="197"/>
+      <c r="Y31" s="197"/>
+      <c r="Z31" s="197"/>
+      <c r="AA31" s="197"/>
+      <c r="AB31" s="198"/>
+      <c r="AC31" s="179"/>
+      <c r="AD31" s="182"/>
+      <c r="AE31" s="180"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="170"/>
-      <c r="V32" s="170"/>
-      <c r="W32" s="170"/>
-      <c r="X32" s="170"/>
-      <c r="Y32" s="170"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="171"/>
-      <c r="AC32" s="163"/>
-      <c r="AD32" s="164"/>
-      <c r="AE32" s="165"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="197"/>
+      <c r="M32" s="197"/>
+      <c r="N32" s="197"/>
+      <c r="O32" s="197"/>
+      <c r="P32" s="197"/>
+      <c r="Q32" s="197"/>
+      <c r="R32" s="197"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="197"/>
+      <c r="U32" s="197"/>
+      <c r="V32" s="197"/>
+      <c r="W32" s="197"/>
+      <c r="X32" s="197"/>
+      <c r="Y32" s="197"/>
+      <c r="Z32" s="197"/>
+      <c r="AA32" s="197"/>
+      <c r="AB32" s="198"/>
+      <c r="AC32" s="179"/>
+      <c r="AD32" s="182"/>
+      <c r="AE32" s="180"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="170"/>
-      <c r="V33" s="170"/>
-      <c r="W33" s="170"/>
-      <c r="X33" s="170"/>
-      <c r="Y33" s="170"/>
-      <c r="Z33" s="170"/>
-      <c r="AA33" s="170"/>
-      <c r="AB33" s="171"/>
-      <c r="AC33" s="163"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="165"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="N33" s="197"/>
+      <c r="O33" s="197"/>
+      <c r="P33" s="197"/>
+      <c r="Q33" s="197"/>
+      <c r="R33" s="197"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="197"/>
+      <c r="U33" s="197"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="197"/>
+      <c r="X33" s="197"/>
+      <c r="Y33" s="197"/>
+      <c r="Z33" s="197"/>
+      <c r="AA33" s="197"/>
+      <c r="AB33" s="198"/>
+      <c r="AC33" s="179"/>
+      <c r="AD33" s="182"/>
+      <c r="AE33" s="180"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -6088,6 +6092,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -6099,51 +6148,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6193,10 +6197,10 @@
       <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="206"/>
+      <c r="B2" s="200"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="39" t="s">
@@ -6207,10 +6211,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="206"/>
+      <c r="B3" s="200"/>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
@@ -6221,10 +6225,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="206"/>
+      <c r="B4" s="200"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
@@ -6235,10 +6239,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="200"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39" t="s">
@@ -6247,10 +6251,10 @@
       <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="206"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
@@ -6289,10 +6293,10 @@
       <c r="D9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="203" t="s">
+      <c r="E9" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="204"/>
+      <c r="F9" s="206"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="68">
@@ -6307,8 +6311,8 @@
       <c r="D10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="199"/>
-      <c r="F10" s="200"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="68">
@@ -6323,8 +6327,8 @@
       <c r="D11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="199"/>
-      <c r="F11" s="200"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="202"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="68">
@@ -6339,8 +6343,8 @@
       <c r="D12" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="202"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="68">
@@ -6355,8 +6359,8 @@
       <c r="D13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="199"/>
-      <c r="F13" s="200"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="202"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="68">
@@ -6371,8 +6375,8 @@
       <c r="D14" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9">
@@ -6387,24 +6391,24 @@
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -6866,11 +6870,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -6880,6 +6879,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6992,40 +6996,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -7046,10 +7050,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -7070,10 +7074,10 @@
       <c r="B11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -7198,8 +7202,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -7208,8 +7212,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -7218,8 +7222,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -7228,8 +7232,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -7238,8 +7242,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -7248,8 +7252,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -7258,8 +7262,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -7268,8 +7272,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -7278,8 +7282,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -7288,8 +7292,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -7298,8 +7302,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -7308,8 +7312,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -7318,8 +7322,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -7351,10 +7355,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -7369,51 +7373,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -7446,15 +7450,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -7462,51 +7466,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="217"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="209"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="227"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="240"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7538,15 +7542,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -7554,71 +7558,110 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="215" t="s">
+      <c r="C50" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="216"/>
-      <c r="E50" s="217"/>
-      <c r="F50" s="218" t="s">
+      <c r="D50" s="208"/>
+      <c r="E50" s="209"/>
+      <c r="F50" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="219"/>
-      <c r="H50" s="215" t="s">
+      <c r="G50" s="232"/>
+      <c r="H50" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="I50" s="216"/>
-      <c r="J50" s="217"/>
+      <c r="I50" s="208"/>
+      <c r="J50" s="209"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="215" t="s">
+      <c r="C51" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="216"/>
-      <c r="E51" s="217"/>
-      <c r="F51" s="207" t="s">
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="221" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="209"/>
-      <c r="H51" s="215" t="s">
+      <c r="G51" s="223"/>
+      <c r="H51" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="I51" s="216"/>
-      <c r="J51" s="217"/>
+      <c r="I51" s="208"/>
+      <c r="J51" s="209"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="C24:D24"/>
@@ -7635,45 +7678,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7689,8 +7693,8 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7782,36 +7786,36 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -7832,10 +7836,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -7856,10 +7860,10 @@
       <c r="B11" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>167</v>
       </c>
@@ -7966,7 +7970,9 @@
       <c r="F16" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="81" t="s">
+        <v>176</v>
+      </c>
       <c r="H16" s="82"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
@@ -7976,10 +7982,10 @@
       <c r="B17" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="242" t="s">
+      <c r="C17" s="217" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="243"/>
+      <c r="D17" s="218"/>
       <c r="E17" s="72" t="s">
         <v>81</v>
       </c>
@@ -7998,10 +8004,10 @@
       <c r="B18" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="236" t="s">
+      <c r="C18" s="210" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="237"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="72" t="s">
         <v>82</v>
       </c>
@@ -8016,8 +8022,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -8026,8 +8032,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -8036,8 +8042,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -8046,8 +8052,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -8056,8 +8062,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -8066,8 +8072,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -8076,8 +8082,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -8086,8 +8092,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -8096,8 +8102,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -8106,8 +8112,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -8116,8 +8122,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -8126,8 +8132,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -8159,10 +8165,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -8177,51 +8183,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -8254,15 +8260,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="247" t="s">
         <v>14</v>
       </c>
@@ -8272,15 +8278,15 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="217"/>
+      <c r="G42" s="209"/>
       <c r="H42" s="244" t="s">
         <v>146</v>
       </c>
@@ -8290,15 +8296,15 @@
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225" t="s">
+      <c r="C43" s="238" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="215" t="s">
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="217"/>
+      <c r="G43" s="209"/>
       <c r="H43" s="253" t="s">
         <v>147</v>
       </c>
@@ -8308,11 +8314,11 @@
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="249"/>
       <c r="I44" s="250"/>
       <c r="J44" s="250"/>
@@ -8320,11 +8326,11 @@
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="249"/>
       <c r="I45" s="250"/>
       <c r="J45" s="250"/>
@@ -8332,11 +8338,11 @@
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="251"/>
       <c r="I46" s="252"/>
       <c r="J46" s="252"/>
@@ -8370,15 +8376,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -8386,117 +8392,71 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="226"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="218" t="s">
+      <c r="D50" s="239"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="219"/>
-      <c r="H50" s="225" t="s">
+      <c r="G50" s="232"/>
+      <c r="H50" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="I50" s="226"/>
-      <c r="J50" s="227"/>
+      <c r="I50" s="239"/>
+      <c r="J50" s="240"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="225" t="s">
+      <c r="C51" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="226"/>
-      <c r="E51" s="227"/>
-      <c r="F51" s="207" t="s">
+      <c r="D51" s="239"/>
+      <c r="E51" s="240"/>
+      <c r="F51" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="209"/>
-      <c r="H51" s="225" t="s">
+      <c r="G51" s="223"/>
+      <c r="H51" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="I51" s="226"/>
-      <c r="J51" s="227"/>
+      <c r="I51" s="239"/>
+      <c r="J51" s="240"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
@@ -8513,6 +8473,52 @@
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8621,40 +8627,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -8675,10 +8681,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -8699,10 +8705,10 @@
       <c r="B11" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>82</v>
       </c>
@@ -8787,8 +8793,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -8797,8 +8803,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -8807,8 +8813,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -8817,8 +8823,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -8827,8 +8833,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -8837,8 +8843,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -8847,8 +8853,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -8857,8 +8863,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -8867,8 +8873,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -8877,8 +8883,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -8887,8 +8893,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -8897,8 +8903,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -8907,8 +8913,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -8940,10 +8946,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -8958,51 +8964,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -9035,15 +9041,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -9051,51 +9057,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="217"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="209"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="227"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="240"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9127,15 +9133,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9143,63 +9149,101 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="238" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="226"/>
-      <c r="E50" s="227"/>
-      <c r="F50" s="218" t="s">
+      <c r="D50" s="239"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="230" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="219"/>
-      <c r="H50" s="225" t="s">
+      <c r="G50" s="232"/>
+      <c r="H50" s="238" t="s">
         <v>147</v>
       </c>
-      <c r="I50" s="226"/>
-      <c r="J50" s="227"/>
+      <c r="I50" s="239"/>
+      <c r="J50" s="240"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C6:H6"/>
@@ -9216,44 +9260,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9362,40 +9368,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -9416,10 +9422,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -9440,10 +9446,10 @@
       <c r="B11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -9530,8 +9536,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -9540,8 +9546,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -9550,8 +9556,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -9560,8 +9566,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -9570,8 +9576,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -9580,8 +9586,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -9590,8 +9596,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -9600,8 +9606,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -9610,8 +9616,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -9620,8 +9626,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -9630,8 +9636,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -9640,8 +9646,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -9650,8 +9656,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -9683,10 +9689,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -9701,51 +9707,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -9778,15 +9784,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -9794,67 +9800,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="217"/>
-      <c r="H42" s="215" t="s">
+      <c r="G42" s="209"/>
+      <c r="H42" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="216"/>
-      <c r="J42" s="217"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225" t="s">
+      <c r="C43" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="225" t="s">
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="227"/>
-      <c r="H43" s="225" t="s">
+      <c r="G43" s="240"/>
+      <c r="H43" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="I43" s="226"/>
-      <c r="J43" s="227"/>
+      <c r="I43" s="239"/>
+      <c r="J43" s="240"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -9886,15 +9892,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9902,55 +9908,94 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="219"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -9967,45 +10012,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10114,40 +10120,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10168,10 +10174,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10192,10 +10198,10 @@
       <c r="B11" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="80" t="s">
         <v>167</v>
       </c>
@@ -10304,8 +10310,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -10314,8 +10320,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -10324,8 +10330,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -10334,8 +10340,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -10344,8 +10350,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -10354,8 +10360,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -10364,8 +10370,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -10374,8 +10380,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -10384,8 +10390,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -10394,8 +10400,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -10404,8 +10410,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -10414,8 +10420,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -10424,8 +10430,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -10457,10 +10463,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -10475,51 +10481,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -10552,15 +10558,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -10568,67 +10574,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="226"/>
-      <c r="E42" s="227"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="239"/>
+      <c r="E42" s="240"/>
+      <c r="F42" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="217"/>
-      <c r="H42" s="225" t="s">
+      <c r="G42" s="209"/>
+      <c r="H42" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="I42" s="226"/>
-      <c r="J42" s="227"/>
+      <c r="I42" s="239"/>
+      <c r="J42" s="240"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="215" t="s">
+      <c r="C43" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="216"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="225" t="s">
+      <c r="D43" s="208"/>
+      <c r="E43" s="209"/>
+      <c r="F43" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="227"/>
-      <c r="H43" s="215" t="s">
+      <c r="G43" s="240"/>
+      <c r="H43" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="216"/>
-      <c r="J43" s="217"/>
+      <c r="I43" s="208"/>
+      <c r="J43" s="209"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -10660,15 +10666,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -10676,55 +10682,94 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="219"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -10741,45 +10786,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10888,40 +10894,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="238" t="s">
+      <c r="C6" s="212" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="214"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="240"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="240"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10942,10 +10948,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="241"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10966,10 +10972,10 @@
       <c r="B11" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="217" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="218"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -11064,8 +11070,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="211"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -11074,8 +11080,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="236"/>
-      <c r="D19" s="237"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -11084,8 +11090,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -11094,8 +11100,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -11104,8 +11110,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -11114,8 +11120,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="237"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -11124,8 +11130,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="237"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -11134,8 +11140,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -11144,8 +11150,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -11154,8 +11160,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -11164,8 +11170,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -11174,8 +11180,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -11184,8 +11190,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="84"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="212"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -11217,10 +11223,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="227"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -11235,51 +11241,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="219"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="229"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="229"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="209"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="209"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="230"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="212"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -11312,15 +11318,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="220" t="s">
+      <c r="C41" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="221"/>
-      <c r="E41" s="222"/>
-      <c r="F41" s="220" t="s">
+      <c r="D41" s="236"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="232"/>
+      <c r="G41" s="237"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -11328,59 +11334,59 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="215" t="s">
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="217"/>
-      <c r="H42" s="215" t="s">
+      <c r="G42" s="209"/>
+      <c r="H42" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="I42" s="216"/>
-      <c r="J42" s="217"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="209"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="227"/>
+      <c r="C43" s="238"/>
+      <c r="D43" s="239"/>
+      <c r="E43" s="240"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="240"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="207"/>
-      <c r="G44" s="209"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="223"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="207"/>
-      <c r="G45" s="209"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="222"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="223"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="211"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="214"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -11412,15 +11418,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="220" t="s">
+      <c r="C49" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="221"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="223" t="s">
+      <c r="D49" s="236"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="224"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -11428,55 +11434,93 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="219"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="219"/>
+      <c r="C50" s="230"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="232"/>
+      <c r="F50" s="230"/>
+      <c r="G50" s="232"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="209"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="209"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="209"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="213"/>
-      <c r="G54" s="214"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="241"/>
+      <c r="G54" s="242"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -11493,44 +11537,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11599,10 +11605,10 @@
       <c r="K2" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="166">
+      <c r="L2" s="193">
         <v>43971</v>
       </c>
-      <c r="M2" s="168"/>
+      <c r="M2" s="195"/>
       <c r="N2" s="159"/>
       <c r="O2" s="159"/>
     </row>
@@ -11624,8 +11630,8 @@
       <c r="K3" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="258"/>
-      <c r="M3" s="259"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="262"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="109" t="s">
@@ -11643,8 +11649,8 @@
       <c r="K4" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="258"/>
-      <c r="M4" s="259"/>
+      <c r="L4" s="261"/>
+      <c r="M4" s="262"/>
     </row>
     <row r="5" spans="1:15" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -11716,14 +11722,14 @@
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="122"/>
-      <c r="G9" s="260" t="s">
+      <c r="G9" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="261"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="261"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="262"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="264"/>
+      <c r="K9" s="264"/>
+      <c r="L9" s="265"/>
       <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1">
@@ -11755,15 +11761,15 @@
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="263" t="s">
+      <c r="B11" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="255" t="s">
+      <c r="C11" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="256"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="257"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="259"/>
+      <c r="F11" s="260"/>
       <c r="G11" s="126" t="s">
         <v>130</v>
       </c>
@@ -11776,13 +11782,13 @@
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="255" t="s">
+      <c r="B12" s="256"/>
+      <c r="C12" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="257"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="260"/>
       <c r="G12" s="126" t="s">
         <v>130</v>
       </c>
@@ -11795,13 +11801,13 @@
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="255" t="s">
+      <c r="B13" s="256"/>
+      <c r="C13" s="258" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="257"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="260"/>
       <c r="G13" s="126" t="s">
         <v>122</v>
       </c>
@@ -11814,13 +11820,13 @@
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="264"/>
-      <c r="C14" s="255" t="s">
+      <c r="B14" s="256"/>
+      <c r="C14" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="257"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
       <c r="G14" s="126" t="s">
         <v>123</v>
       </c>
@@ -11833,13 +11839,13 @@
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="264"/>
-      <c r="C15" s="255" t="s">
+      <c r="B15" s="256"/>
+      <c r="C15" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="257"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
       <c r="G15" s="126" t="s">
         <v>124</v>
       </c>
@@ -11852,13 +11858,13 @@
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="255" t="s">
+      <c r="B16" s="256"/>
+      <c r="C16" s="258" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="257"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
       <c r="G16" s="126"/>
       <c r="H16" s="126" t="s">
         <v>130</v>
@@ -11873,13 +11879,13 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="255" t="s">
+      <c r="B17" s="256"/>
+      <c r="C17" s="258" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="257"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="260"/>
       <c r="G17" s="126"/>
       <c r="H17" s="126" t="s">
         <v>130</v>
@@ -11896,13 +11902,13 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="255" t="s">
+      <c r="B18" s="256"/>
+      <c r="C18" s="258" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="257"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="260"/>
       <c r="G18" s="126" t="s">
         <v>130</v>
       </c>
@@ -11917,13 +11923,13 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="255" t="s">
+      <c r="B19" s="256"/>
+      <c r="C19" s="258" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="256"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="257"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="260"/>
       <c r="G19" s="126" t="s">
         <v>130</v>
       </c>
@@ -11938,13 +11944,13 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="264"/>
-      <c r="C20" s="255" t="s">
+      <c r="B20" s="256"/>
+      <c r="C20" s="258" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="256"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="257"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="260"/>
       <c r="G20" s="126" t="s">
         <v>130</v>
       </c>
@@ -11957,13 +11963,13 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="264"/>
-      <c r="C21" s="255" t="s">
+      <c r="B21" s="256"/>
+      <c r="C21" s="258" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="257"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="260"/>
       <c r="G21" s="126"/>
       <c r="H21" s="126"/>
       <c r="I21" s="126"/>
@@ -11976,13 +11982,13 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="264"/>
-      <c r="C22" s="255" t="s">
+      <c r="B22" s="256"/>
+      <c r="C22" s="258" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="257"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="260"/>
       <c r="G22" s="126"/>
       <c r="H22" s="126"/>
       <c r="I22" s="126"/>
@@ -11995,13 +12001,13 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="264"/>
-      <c r="C23" s="255" t="s">
+      <c r="B23" s="256"/>
+      <c r="C23" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="257"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="260"/>
       <c r="G23" s="126"/>
       <c r="H23" s="126" t="s">
         <v>122</v>
@@ -12014,13 +12020,13 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="264"/>
-      <c r="C24" s="255" t="s">
+      <c r="B24" s="256"/>
+      <c r="C24" s="258" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="257"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="260"/>
       <c r="G24" s="126"/>
       <c r="H24" s="126" t="s">
         <v>123</v>
@@ -12033,13 +12039,13 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="264"/>
-      <c r="C25" s="255" t="s">
+      <c r="B25" s="256"/>
+      <c r="C25" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="256"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="257"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="260"/>
       <c r="G25" s="126"/>
       <c r="H25" s="126" t="s">
         <v>124</v>
@@ -12052,13 +12058,13 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="264"/>
-      <c r="C26" s="255" t="s">
+      <c r="B26" s="256"/>
+      <c r="C26" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="257"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="260"/>
       <c r="G26" s="126" t="s">
         <v>130</v>
       </c>
@@ -12073,7 +12079,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="264"/>
+      <c r="B27" s="256"/>
       <c r="C27" s="127"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140"/>
@@ -12088,7 +12094,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="264"/>
+      <c r="B28" s="256"/>
       <c r="C28" s="127"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140"/>
@@ -12103,7 +12109,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="264"/>
+      <c r="B29" s="256"/>
       <c r="C29" s="127"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140"/>
@@ -12118,7 +12124,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="264"/>
+      <c r="B30" s="256"/>
       <c r="C30" s="127"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
@@ -12133,7 +12139,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="264"/>
+      <c r="B31" s="256"/>
       <c r="C31" s="127"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140"/>
@@ -12148,11 +12154,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="264"/>
-      <c r="C32" s="255"/>
-      <c r="D32" s="256"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="257"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="258"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="260"/>
       <c r="G32" s="126"/>
       <c r="H32" s="126"/>
       <c r="I32" s="126"/>
@@ -12163,11 +12169,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="264"/>
-      <c r="C33" s="255"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="257"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="258"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="260"/>
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
       <c r="I33" s="126"/>
@@ -12178,11 +12184,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="118"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="255"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="257"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="260"/>
       <c r="G34" s="126"/>
       <c r="H34" s="126"/>
       <c r="I34" s="126"/>
@@ -12193,11 +12199,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="118"/>
-      <c r="B35" s="264"/>
-      <c r="C35" s="255"/>
-      <c r="D35" s="256"/>
-      <c r="E35" s="256"/>
-      <c r="F35" s="257"/>
+      <c r="B35" s="256"/>
+      <c r="C35" s="258"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="259"/>
+      <c r="F35" s="260"/>
       <c r="G35" s="126"/>
       <c r="H35" s="126"/>
       <c r="I35" s="126"/>
@@ -12208,11 +12214,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="118"/>
-      <c r="B36" s="265"/>
-      <c r="C36" s="255"/>
-      <c r="D36" s="256"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="257"/>
+      <c r="B36" s="257"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="260"/>
       <c r="G36" s="126"/>
       <c r="H36" s="126"/>
       <c r="I36" s="126"/>
@@ -12253,6 +12259,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -12269,16 +12285,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12287,6 +12293,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E4BA36D546265442A08A19E41F1D1BDD" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2e8dd8e6999d741a1c3eb6ca27f596d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d868ab53af1b141f55385f9a789c4e3" ns2:_="">
     <xsd:import namespace="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f"/>
@@ -12418,22 +12439,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5611681E-FFDA-4FE6-A588-CE730F72FDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12449,21 +12472,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/designDocuments/databaseDesignDocument/01_データベース設計書_v1.3.xlsx
+++ b/designDocuments/databaseDesignDocument/01_データベース設計書_v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryo/workspace/student_dontneed_shop/designDocuments/databaseDesignDocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E7A927-C090-F44F-9B0F-30EBB555F7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D92D54F-7807-1C42-88F3-DC91F63D0A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,9 +966,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>INT(16)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1322,6 +1319,10 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>is_sold</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2839,6 +2840,36 @@
     <xf numFmtId="177" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2887,18 +2918,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2926,25 +2948,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2953,22 +2972,28 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2980,6 +3005,60 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2995,9 +3074,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3007,81 +3083,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3115,6 +3116,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3123,30 +3148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -4968,21 +4969,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="179" t="s">
+      <c r="U3" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="180"/>
-      <c r="W3" s="181">
+      <c r="V3" s="165"/>
+      <c r="W3" s="189">
         <v>43969</v>
       </c>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="182"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="180"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="165"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -5095,20 +5096,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="164" t="s">
+      <c r="F7" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="166"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="176"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -5126,82 +5127,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="175"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="185"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="163" t="s">
+      <c r="W8" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163" t="s">
+      <c r="X8" s="173"/>
+      <c r="Y8" s="173"/>
+      <c r="Z8" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163" t="s">
+      <c r="AA8" s="173"/>
+      <c r="AB8" s="173"/>
+      <c r="AC8" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
+      <c r="AD8" s="173"/>
+      <c r="AE8" s="173"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="178"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="188"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="183" t="s">
+      <c r="W9" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="184"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="183"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="183" t="s">
+      <c r="X9" s="191"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="191"/>
+      <c r="AB9" s="192"/>
+      <c r="AC9" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="184"/>
-      <c r="AE9" s="185"/>
+      <c r="AD9" s="191"/>
+      <c r="AE9" s="192"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -5227,15 +5228,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="188"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="188"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="188"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="195"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="195"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -5261,15 +5262,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="188"/>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="188"/>
-      <c r="AC11" s="186"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="193"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="195"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -5295,15 +5296,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="189"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="190"/>
-      <c r="AE12" s="191"/>
+      <c r="W12" s="196"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="198"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="196"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="198"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -5402,106 +5403,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="192"/>
-      <c r="O16" s="192"/>
-      <c r="P16" s="192"/>
-      <c r="Q16" s="192"/>
-      <c r="R16" s="192"/>
-      <c r="S16" s="192"/>
-      <c r="T16" s="192"/>
-      <c r="U16" s="192"/>
-      <c r="V16" s="192"/>
-      <c r="W16" s="192"/>
-      <c r="X16" s="192"/>
-      <c r="Y16" s="192"/>
-      <c r="Z16" s="192"/>
-      <c r="AA16" s="192"/>
-      <c r="AB16" s="192"/>
-      <c r="AC16" s="192"/>
-      <c r="AD16" s="192"/>
-      <c r="AE16" s="192"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="172"/>
+      <c r="U16" s="172"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="172"/>
+      <c r="AA16" s="172"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="172"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="192"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="192"/>
-      <c r="U17" s="192"/>
-      <c r="V17" s="192"/>
-      <c r="W17" s="192"/>
-      <c r="X17" s="192"/>
-      <c r="Y17" s="192"/>
-      <c r="Z17" s="192"/>
-      <c r="AA17" s="192"/>
-      <c r="AB17" s="192"/>
-      <c r="AC17" s="192"/>
-      <c r="AD17" s="192"/>
-      <c r="AE17" s="192"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="172"/>
+      <c r="Y17" s="172"/>
+      <c r="Z17" s="172"/>
+      <c r="AA17" s="172"/>
+      <c r="AB17" s="172"/>
+      <c r="AC17" s="172"/>
+      <c r="AD17" s="172"/>
+      <c r="AE17" s="172"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="192"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="192"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="192"/>
-      <c r="AC18" s="192"/>
-      <c r="AD18" s="192"/>
-      <c r="AE18" s="192"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="172"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -5644,416 +5645,416 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="179" t="s">
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="179" t="s">
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="182"/>
-      <c r="S23" s="182"/>
-      <c r="T23" s="182"/>
-      <c r="U23" s="182"/>
-      <c r="V23" s="182"/>
-      <c r="W23" s="182"/>
-      <c r="X23" s="182"/>
-      <c r="Y23" s="182"/>
-      <c r="Z23" s="182"/>
-      <c r="AA23" s="182"/>
-      <c r="AB23" s="180"/>
-      <c r="AC23" s="179" t="s">
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="164"/>
+      <c r="O23" s="164"/>
+      <c r="P23" s="164"/>
+      <c r="Q23" s="164"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="182"/>
-      <c r="AE23" s="180"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="165"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="179" t="s">
+      <c r="B24" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="193">
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="166">
         <v>43969</v>
       </c>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="196" t="s">
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="197"/>
-      <c r="P24" s="197"/>
-      <c r="Q24" s="197"/>
-      <c r="R24" s="197"/>
-      <c r="S24" s="197"/>
-      <c r="T24" s="197"/>
-      <c r="U24" s="197"/>
-      <c r="V24" s="197"/>
-      <c r="W24" s="197"/>
-      <c r="X24" s="197"/>
-      <c r="Y24" s="197"/>
-      <c r="Z24" s="197"/>
-      <c r="AA24" s="197"/>
-      <c r="AB24" s="198"/>
-      <c r="AC24" s="179" t="s">
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="170"/>
+      <c r="S24" s="170"/>
+      <c r="T24" s="170"/>
+      <c r="U24" s="170"/>
+      <c r="V24" s="170"/>
+      <c r="W24" s="170"/>
+      <c r="X24" s="170"/>
+      <c r="Y24" s="170"/>
+      <c r="Z24" s="170"/>
+      <c r="AA24" s="170"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="182"/>
-      <c r="AE24" s="180"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="165"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="179" t="s">
+      <c r="B25" s="163" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="166">
+        <v>43971</v>
+      </c>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="170"/>
+      <c r="T25" s="170"/>
+      <c r="U25" s="170"/>
+      <c r="V25" s="170"/>
+      <c r="W25" s="170"/>
+      <c r="X25" s="170"/>
+      <c r="Y25" s="170"/>
+      <c r="Z25" s="170"/>
+      <c r="AA25" s="170"/>
+      <c r="AB25" s="171"/>
+      <c r="AC25" s="163" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="193">
-        <v>43971</v>
-      </c>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="196" t="s">
-        <v>135</v>
-      </c>
-      <c r="K25" s="197"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="197"/>
-      <c r="O25" s="197"/>
-      <c r="P25" s="197"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="197"/>
-      <c r="S25" s="197"/>
-      <c r="T25" s="197"/>
-      <c r="U25" s="197"/>
-      <c r="V25" s="197"/>
-      <c r="W25" s="197"/>
-      <c r="X25" s="197"/>
-      <c r="Y25" s="197"/>
-      <c r="Z25" s="197"/>
-      <c r="AA25" s="197"/>
-      <c r="AB25" s="198"/>
-      <c r="AC25" s="179" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD25" s="182"/>
-      <c r="AE25" s="180"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="165"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="179" t="s">
+      <c r="B26" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="166">
+        <v>43972</v>
+      </c>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="182"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="193">
-        <v>43972</v>
-      </c>
-      <c r="G26" s="194"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="196" t="s">
-        <v>160</v>
-      </c>
-      <c r="K26" s="197"/>
-      <c r="L26" s="197"/>
-      <c r="M26" s="197"/>
-      <c r="N26" s="197"/>
-      <c r="O26" s="197"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197"/>
-      <c r="R26" s="197"/>
-      <c r="S26" s="197"/>
-      <c r="T26" s="197"/>
-      <c r="U26" s="197"/>
-      <c r="V26" s="197"/>
-      <c r="W26" s="197"/>
-      <c r="X26" s="197"/>
-      <c r="Y26" s="197"/>
-      <c r="Z26" s="197"/>
-      <c r="AA26" s="197"/>
-      <c r="AB26" s="198"/>
-      <c r="AC26" s="179" t="s">
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="170"/>
+      <c r="S26" s="170"/>
+      <c r="T26" s="170"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="170"/>
+      <c r="W26" s="170"/>
+      <c r="X26" s="170"/>
+      <c r="Y26" s="170"/>
+      <c r="Z26" s="170"/>
+      <c r="AA26" s="170"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="180"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="165"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="179" t="s">
+      <c r="B27" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="164"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="166">
+        <v>43976</v>
+      </c>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="169" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="182"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="193">
-        <v>43976</v>
-      </c>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="196" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="197"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="197"/>
-      <c r="N27" s="197"/>
-      <c r="O27" s="197"/>
-      <c r="P27" s="197"/>
-      <c r="Q27" s="197"/>
-      <c r="R27" s="197"/>
-      <c r="S27" s="197"/>
-      <c r="T27" s="197"/>
-      <c r="U27" s="197"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="197"/>
-      <c r="Y27" s="197"/>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="197"/>
-      <c r="AB27" s="198"/>
-      <c r="AC27" s="179" t="s">
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="170"/>
+      <c r="R27" s="170"/>
+      <c r="S27" s="170"/>
+      <c r="T27" s="170"/>
+      <c r="U27" s="170"/>
+      <c r="V27" s="170"/>
+      <c r="W27" s="170"/>
+      <c r="X27" s="170"/>
+      <c r="Y27" s="170"/>
+      <c r="Z27" s="170"/>
+      <c r="AA27" s="170"/>
+      <c r="AB27" s="171"/>
+      <c r="AC27" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="AD27" s="182"/>
-      <c r="AE27" s="180"/>
+      <c r="AD27" s="164"/>
+      <c r="AE27" s="165"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="179"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="197"/>
-      <c r="L28" s="197"/>
-      <c r="M28" s="197"/>
-      <c r="N28" s="197"/>
-      <c r="O28" s="197"/>
-      <c r="P28" s="197"/>
-      <c r="Q28" s="197"/>
-      <c r="R28" s="197"/>
-      <c r="S28" s="197"/>
-      <c r="T28" s="197"/>
-      <c r="U28" s="197"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="197"/>
-      <c r="X28" s="197"/>
-      <c r="Y28" s="197"/>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="197"/>
-      <c r="AB28" s="198"/>
-      <c r="AC28" s="179"/>
-      <c r="AD28" s="182"/>
-      <c r="AE28" s="180"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="170"/>
+      <c r="S28" s="170"/>
+      <c r="T28" s="170"/>
+      <c r="U28" s="170"/>
+      <c r="V28" s="170"/>
+      <c r="W28" s="170"/>
+      <c r="X28" s="170"/>
+      <c r="Y28" s="170"/>
+      <c r="Z28" s="170"/>
+      <c r="AA28" s="170"/>
+      <c r="AB28" s="171"/>
+      <c r="AC28" s="163"/>
+      <c r="AD28" s="164"/>
+      <c r="AE28" s="165"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="182"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="197"/>
-      <c r="L29" s="197"/>
-      <c r="M29" s="197"/>
-      <c r="N29" s="197"/>
-      <c r="O29" s="197"/>
-      <c r="P29" s="197"/>
-      <c r="Q29" s="197"/>
-      <c r="R29" s="197"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="197"/>
-      <c r="U29" s="197"/>
-      <c r="V29" s="197"/>
-      <c r="W29" s="197"/>
-      <c r="X29" s="197"/>
-      <c r="Y29" s="197"/>
-      <c r="Z29" s="197"/>
-      <c r="AA29" s="197"/>
-      <c r="AB29" s="198"/>
-      <c r="AC29" s="179"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="180"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="170"/>
+      <c r="O29" s="170"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="170"/>
+      <c r="S29" s="170"/>
+      <c r="T29" s="170"/>
+      <c r="U29" s="170"/>
+      <c r="V29" s="170"/>
+      <c r="W29" s="170"/>
+      <c r="X29" s="170"/>
+      <c r="Y29" s="170"/>
+      <c r="Z29" s="170"/>
+      <c r="AA29" s="170"/>
+      <c r="AB29" s="171"/>
+      <c r="AC29" s="163"/>
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="165"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="197"/>
-      <c r="L30" s="197"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="197"/>
-      <c r="O30" s="197"/>
-      <c r="P30" s="197"/>
-      <c r="Q30" s="197"/>
-      <c r="R30" s="197"/>
-      <c r="S30" s="197"/>
-      <c r="T30" s="197"/>
-      <c r="U30" s="197"/>
-      <c r="V30" s="197"/>
-      <c r="W30" s="197"/>
-      <c r="X30" s="197"/>
-      <c r="Y30" s="197"/>
-      <c r="Z30" s="197"/>
-      <c r="AA30" s="197"/>
-      <c r="AB30" s="198"/>
-      <c r="AC30" s="179"/>
-      <c r="AD30" s="182"/>
-      <c r="AE30" s="180"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
+      <c r="N30" s="170"/>
+      <c r="O30" s="170"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="170"/>
+      <c r="S30" s="170"/>
+      <c r="T30" s="170"/>
+      <c r="U30" s="170"/>
+      <c r="V30" s="170"/>
+      <c r="W30" s="170"/>
+      <c r="X30" s="170"/>
+      <c r="Y30" s="170"/>
+      <c r="Z30" s="170"/>
+      <c r="AA30" s="170"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="163"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="165"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="197"/>
-      <c r="M31" s="197"/>
-      <c r="N31" s="197"/>
-      <c r="O31" s="197"/>
-      <c r="P31" s="197"/>
-      <c r="Q31" s="197"/>
-      <c r="R31" s="197"/>
-      <c r="S31" s="197"/>
-      <c r="T31" s="197"/>
-      <c r="U31" s="197"/>
-      <c r="V31" s="197"/>
-      <c r="W31" s="197"/>
-      <c r="X31" s="197"/>
-      <c r="Y31" s="197"/>
-      <c r="Z31" s="197"/>
-      <c r="AA31" s="197"/>
-      <c r="AB31" s="198"/>
-      <c r="AC31" s="179"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="180"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="170"/>
+      <c r="R31" s="170"/>
+      <c r="S31" s="170"/>
+      <c r="T31" s="170"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="170"/>
+      <c r="X31" s="170"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="170"/>
+      <c r="AA31" s="170"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="163"/>
+      <c r="AD31" s="164"/>
+      <c r="AE31" s="165"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="197"/>
-      <c r="O32" s="197"/>
-      <c r="P32" s="197"/>
-      <c r="Q32" s="197"/>
-      <c r="R32" s="197"/>
-      <c r="S32" s="197"/>
-      <c r="T32" s="197"/>
-      <c r="U32" s="197"/>
-      <c r="V32" s="197"/>
-      <c r="W32" s="197"/>
-      <c r="X32" s="197"/>
-      <c r="Y32" s="197"/>
-      <c r="Z32" s="197"/>
-      <c r="AA32" s="197"/>
-      <c r="AB32" s="198"/>
-      <c r="AC32" s="179"/>
-      <c r="AD32" s="182"/>
-      <c r="AE32" s="180"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="170"/>
+      <c r="O32" s="170"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="170"/>
+      <c r="R32" s="170"/>
+      <c r="S32" s="170"/>
+      <c r="T32" s="170"/>
+      <c r="U32" s="170"/>
+      <c r="V32" s="170"/>
+      <c r="W32" s="170"/>
+      <c r="X32" s="170"/>
+      <c r="Y32" s="170"/>
+      <c r="Z32" s="170"/>
+      <c r="AA32" s="170"/>
+      <c r="AB32" s="171"/>
+      <c r="AC32" s="163"/>
+      <c r="AD32" s="164"/>
+      <c r="AE32" s="165"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="197"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="197"/>
-      <c r="N33" s="197"/>
-      <c r="O33" s="197"/>
-      <c r="P33" s="197"/>
-      <c r="Q33" s="197"/>
-      <c r="R33" s="197"/>
-      <c r="S33" s="197"/>
-      <c r="T33" s="197"/>
-      <c r="U33" s="197"/>
-      <c r="V33" s="197"/>
-      <c r="W33" s="197"/>
-      <c r="X33" s="197"/>
-      <c r="Y33" s="197"/>
-      <c r="Z33" s="197"/>
-      <c r="AA33" s="197"/>
-      <c r="AB33" s="198"/>
-      <c r="AC33" s="179"/>
-      <c r="AD33" s="182"/>
-      <c r="AE33" s="180"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="170"/>
+      <c r="S33" s="170"/>
+      <c r="T33" s="170"/>
+      <c r="U33" s="170"/>
+      <c r="V33" s="170"/>
+      <c r="W33" s="170"/>
+      <c r="X33" s="170"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="170"/>
+      <c r="AA33" s="170"/>
+      <c r="AB33" s="171"/>
+      <c r="AC33" s="163"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="165"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -6092,51 +6093,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -6148,6 +6104,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6197,10 +6198,10 @@
       <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="200"/>
+      <c r="B2" s="206"/>
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="39" t="s">
@@ -6211,10 +6212,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="200"/>
+      <c r="B3" s="206"/>
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="39" t="s">
@@ -6225,10 +6226,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="200"/>
+      <c r="B4" s="206"/>
       <c r="C4" s="37"/>
       <c r="D4" s="38"/>
       <c r="E4" s="39" t="s">
@@ -6239,10 +6240,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="200"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="41"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39" t="s">
@@ -6251,10 +6252,10 @@
       <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="200"/>
+      <c r="B6" s="206"/>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39" t="s">
@@ -6293,10 +6294,10 @@
       <c r="D9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="205" t="s">
+      <c r="E9" s="203" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="206"/>
+      <c r="F9" s="204"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="68">
@@ -6306,13 +6307,13 @@
         <v>65</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="200"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="68">
@@ -6322,13 +6323,13 @@
         <v>66</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="200"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="68">
@@ -6338,13 +6339,13 @@
         <v>67</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="200"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="68">
@@ -6354,13 +6355,13 @@
         <v>77</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="200"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="68">
@@ -6370,13 +6371,13 @@
         <v>68</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="200"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="9">
@@ -6386,29 +6387,29 @@
         <v>69</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="202"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="202"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="204"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -6870,6 +6871,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -6879,11 +6885,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6996,40 +6997,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -7050,10 +7051,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -7074,10 +7075,10 @@
       <c r="B11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -7097,11 +7098,11 @@
         <v>87</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="80" t="s">
         <v>80</v>
@@ -7117,11 +7118,11 @@
         <v>88</v>
       </c>
       <c r="C13" s="148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="149"/>
       <c r="E13" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>80</v>
@@ -7134,14 +7135,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="149"/>
       <c r="E14" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="80" t="s">
         <v>80</v>
@@ -7154,14 +7155,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="148" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="149"/>
       <c r="E15" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="80" t="s">
         <v>80</v>
@@ -7174,14 +7175,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="148" t="s">
         <v>161</v>
-      </c>
-      <c r="C16" s="148" t="s">
-        <v>162</v>
       </c>
       <c r="D16" s="149"/>
       <c r="E16" s="80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="80" t="s">
         <v>80</v>
@@ -7202,8 +7203,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -7212,8 +7213,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -7222,8 +7223,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -7232,8 +7233,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -7242,8 +7243,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -7252,8 +7253,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -7262,8 +7263,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -7272,8 +7273,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -7282,8 +7283,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -7292,8 +7293,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -7302,8 +7303,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -7312,8 +7313,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -7322,8 +7323,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -7355,10 +7356,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -7373,51 +7374,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -7450,15 +7451,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -7466,51 +7467,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="209"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="217"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="238"/>
-      <c r="G43" s="240"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="227"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7542,15 +7543,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -7558,110 +7559,71 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="208"/>
-      <c r="E50" s="209"/>
-      <c r="F50" s="230" t="s">
+      <c r="C50" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="216"/>
+      <c r="E50" s="217"/>
+      <c r="F50" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="232"/>
-      <c r="H50" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="208"/>
-      <c r="J50" s="209"/>
+      <c r="G50" s="219"/>
+      <c r="H50" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="I50" s="216"/>
+      <c r="J50" s="217"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="208"/>
-      <c r="E51" s="209"/>
-      <c r="F51" s="221" t="s">
-        <v>104</v>
-      </c>
-      <c r="G51" s="223"/>
-      <c r="H51" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="I51" s="208"/>
-      <c r="J51" s="209"/>
+      <c r="C51" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="216"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="207" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="209"/>
+      <c r="H51" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="216"/>
+      <c r="J51" s="217"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="C24:D24"/>
@@ -7678,6 +7640,45 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7694,7 +7695,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7786,36 +7787,36 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -7836,10 +7837,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -7860,12 +7861,12 @@
       <c r="B11" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="72" t="s">
         <v>80</v>
@@ -7883,7 +7884,7 @@
         <v>98</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="72" t="s">
@@ -7903,11 +7904,11 @@
         <v>99</v>
       </c>
       <c r="C13" s="157" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="149"/>
       <c r="E13" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>80</v>
@@ -7920,14 +7921,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="148" t="s">
         <v>165</v>
-      </c>
-      <c r="C14" s="148" t="s">
-        <v>166</v>
       </c>
       <c r="D14" s="149"/>
       <c r="E14" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
@@ -7941,11 +7942,11 @@
         <v>100</v>
       </c>
       <c r="C15" s="148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="149"/>
       <c r="E15" s="158" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F15" s="80" t="s">
         <v>80</v>
@@ -7961,17 +7962,17 @@
         <v>101</v>
       </c>
       <c r="C16" s="148" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="D16" s="149"/>
       <c r="E16" s="80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="80" t="s">
         <v>80</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="82"/>
     </row>
@@ -7982,10 +7983,10 @@
       <c r="B17" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="217" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="218"/>
+      <c r="C17" s="242" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="243"/>
       <c r="E17" s="72" t="s">
         <v>81</v>
       </c>
@@ -8004,10 +8005,10 @@
       <c r="B18" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="210" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="237"/>
       <c r="E18" s="72" t="s">
         <v>82</v>
       </c>
@@ -8022,8 +8023,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -8032,8 +8033,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -8042,8 +8043,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -8052,8 +8053,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -8062,8 +8063,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -8072,8 +8073,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -8082,8 +8083,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -8092,8 +8093,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -8102,8 +8103,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -8112,8 +8113,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -8122,8 +8123,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -8132,8 +8133,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -8165,10 +8166,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -8183,51 +8184,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -8260,15 +8261,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="247" t="s">
         <v>14</v>
       </c>
@@ -8278,17 +8279,17 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207" t="s">
+      <c r="C42" s="215" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="209"/>
+      <c r="G42" s="217"/>
       <c r="H42" s="244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I42" s="245"/>
       <c r="J42" s="246"/>
@@ -8296,17 +8297,17 @@
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="207" t="s">
+      <c r="C43" s="225" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="209"/>
+      <c r="G43" s="217"/>
       <c r="H43" s="253" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I43" s="254"/>
       <c r="J43" s="254"/>
@@ -8314,11 +8315,11 @@
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="249"/>
       <c r="I44" s="250"/>
       <c r="J44" s="250"/>
@@ -8326,11 +8327,11 @@
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="249"/>
       <c r="I45" s="250"/>
       <c r="J45" s="250"/>
@@ -8338,11 +8339,11 @@
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="251"/>
       <c r="I46" s="252"/>
       <c r="J46" s="252"/>
@@ -8376,15 +8377,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -8392,71 +8393,117 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="239"/>
-      <c r="E50" s="240"/>
-      <c r="F50" s="230" t="s">
+      <c r="C50" s="225" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="226"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="232"/>
-      <c r="H50" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="I50" s="239"/>
-      <c r="J50" s="240"/>
+      <c r="G50" s="219"/>
+      <c r="H50" s="225" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="226"/>
+      <c r="J50" s="227"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="239"/>
-      <c r="E51" s="240"/>
-      <c r="F51" s="221" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="223"/>
-      <c r="H51" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="I51" s="239"/>
-      <c r="J51" s="240"/>
+      <c r="C51" s="225" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="226"/>
+      <c r="E51" s="227"/>
+      <c r="F51" s="207" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" s="209"/>
+      <c r="H51" s="225" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" s="226"/>
+      <c r="J51" s="227"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
@@ -8473,52 +8520,6 @@
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8627,40 +8628,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -8681,10 +8682,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -8705,10 +8706,10 @@
       <c r="B11" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
         <v>82</v>
       </c>
@@ -8728,7 +8729,7 @@
         <v>78</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="72" t="s">
@@ -8793,8 +8794,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -8803,8 +8804,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -8813,8 +8814,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -8823,8 +8824,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -8833,8 +8834,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -8843,8 +8844,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -8853,8 +8854,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -8863,8 +8864,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -8873,8 +8874,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -8883,8 +8884,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -8893,8 +8894,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -8903,8 +8904,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -8913,8 +8914,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -8946,10 +8947,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -8964,51 +8965,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -9041,15 +9042,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -9057,51 +9058,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207"/>
-      <c r="G42" s="209"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215"/>
+      <c r="G42" s="217"/>
       <c r="H42" s="104"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="238"/>
-      <c r="G43" s="240"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="227"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9133,15 +9134,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9149,101 +9150,63 @@
     <row r="50" spans="1:10" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="238" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="239"/>
-      <c r="E50" s="240"/>
-      <c r="F50" s="230" t="s">
+      <c r="C50" s="225" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="226"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="232"/>
-      <c r="H50" s="238" t="s">
-        <v>147</v>
-      </c>
-      <c r="I50" s="239"/>
-      <c r="J50" s="240"/>
+      <c r="G50" s="219"/>
+      <c r="H50" s="225" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="226"/>
+      <c r="J50" s="227"/>
     </row>
     <row r="51" spans="1:10" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="223"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:10" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:10" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C6:H6"/>
@@ -9260,6 +9223,44 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9368,40 +9369,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -9422,10 +9423,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -9446,10 +9447,10 @@
       <c r="B11" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -9469,11 +9470,11 @@
         <v>85</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="80" t="s">
         <v>80</v>
@@ -9536,8 +9537,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -9546,8 +9547,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -9556,8 +9557,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -9566,8 +9567,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -9576,8 +9577,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -9586,8 +9587,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -9596,8 +9597,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -9606,8 +9607,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -9616,8 +9617,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -9626,8 +9627,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -9636,8 +9637,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -9646,8 +9647,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -9656,8 +9657,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -9689,10 +9690,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -9707,51 +9708,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -9784,15 +9785,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -9800,67 +9801,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207" t="s">
+      <c r="C42" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="209"/>
-      <c r="H42" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="208"/>
-      <c r="J42" s="209"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="216"/>
+      <c r="J42" s="217"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="238" t="s">
+      <c r="C43" s="225" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="I43" s="239"/>
-      <c r="J43" s="240"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="225" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="226"/>
+      <c r="J43" s="227"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -9892,15 +9893,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -9908,94 +9909,55 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="230"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="232"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="219"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="223"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -10012,6 +9974,45 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10120,40 +10121,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10174,10 +10175,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10198,12 +10199,12 @@
       <c r="B11" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="72" t="s">
         <v>80</v>
@@ -10221,7 +10222,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="149"/>
       <c r="E12" s="80" t="s">
@@ -10243,11 +10244,11 @@
         <v>85</v>
       </c>
       <c r="C13" s="148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="149"/>
       <c r="E13" s="80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>80</v>
@@ -10265,7 +10266,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="149"/>
       <c r="E14" s="80" t="s">
@@ -10310,8 +10311,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -10320,8 +10321,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -10330,8 +10331,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -10340,8 +10341,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -10350,8 +10351,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -10360,8 +10361,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -10370,8 +10371,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -10380,8 +10381,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -10390,8 +10391,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -10400,8 +10401,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -10410,8 +10411,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -10420,8 +10421,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -10430,8 +10431,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="156"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -10463,10 +10464,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="150" t="s">
         <v>9</v>
       </c>
@@ -10481,51 +10482,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -10558,15 +10559,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -10574,67 +10575,67 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="239"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="207" t="s">
+      <c r="C42" s="225" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="226"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="209"/>
-      <c r="H42" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" s="239"/>
-      <c r="J42" s="240"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="225" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="226"/>
+      <c r="J42" s="227"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="208"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="238" t="s">
+      <c r="C43" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="216"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="225" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="240"/>
-      <c r="H43" s="207" t="s">
-        <v>145</v>
-      </c>
-      <c r="I43" s="208"/>
-      <c r="J43" s="209"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="216"/>
+      <c r="J43" s="217"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="151"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -10666,15 +10667,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -10682,94 +10683,55 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="230"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="232"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="219"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="223"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="151"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="C24:D24"/>
@@ -10786,6 +10748,45 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10894,40 +10895,40 @@
         <v>47</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="240"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="238" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="214"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="64" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="53"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="214"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="54" t="s">
@@ -10948,10 +10949,10 @@
       <c r="B10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="216"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="56" t="s">
         <v>1</v>
       </c>
@@ -10972,10 +10973,10 @@
       <c r="B11" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="217" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="218"/>
+      <c r="C11" s="242" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="243"/>
       <c r="E11" s="72" t="s">
         <v>81</v>
       </c>
@@ -10995,11 +10996,11 @@
         <v>90</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="101"/>
       <c r="E12" s="158" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="80" t="s">
         <v>80</v>
@@ -11015,11 +11016,11 @@
         <v>91</v>
       </c>
       <c r="C13" s="141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="142"/>
       <c r="E13" s="158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>80</v>
@@ -11070,8 +11071,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="211"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
@@ -11080,8 +11081,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="78"/>
       <c r="B19" s="79"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="211"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="237"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
       <c r="G19" s="81"/>
@@ -11090,8 +11091,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="78"/>
       <c r="B20" s="79"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="237"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
       <c r="G20" s="81"/>
@@ -11100,8 +11101,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="78"/>
       <c r="B21" s="79"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="80"/>
       <c r="F21" s="80"/>
       <c r="G21" s="81"/>
@@ -11110,8 +11111,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="80"/>
       <c r="F22" s="80"/>
       <c r="G22" s="81"/>
@@ -11120,8 +11121,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+      <c r="C23" s="236"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="80"/>
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
@@ -11130,8 +11131,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="78"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
       <c r="G24" s="81"/>
@@ -11140,8 +11141,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
       <c r="G25" s="81"/>
@@ -11150,8 +11151,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="78"/>
       <c r="B26" s="79"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="211"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80"/>
       <c r="G26" s="81"/>
@@ -11160,8 +11161,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="78"/>
       <c r="B27" s="79"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="237"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81"/>
@@ -11170,8 +11171,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="78"/>
       <c r="B28" s="79"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80"/>
       <c r="G28" s="81"/>
@@ -11180,8 +11181,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="78"/>
       <c r="B29" s="79"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="211"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80"/>
       <c r="G29" s="81"/>
@@ -11190,8 +11191,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="83"/>
       <c r="B30" s="84"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="225"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
       <c r="G30" s="86"/>
@@ -11223,10 +11224,10 @@
       <c r="A33" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="227"/>
+      <c r="C33" s="222"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -11241,51 +11242,51 @@
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="229"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="219"/>
       <c r="G34" s="73"/>
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:10" ht="20.25" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="219"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="228"/>
+      <c r="C35" s="229"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="209"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="20.25" customHeight="1">
       <c r="A36" s="75"/>
-      <c r="B36" s="219"/>
-      <c r="C36" s="220"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="209"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="20.25" customHeight="1">
       <c r="A37" s="75"/>
-      <c r="B37" s="219"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="209"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="83"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="235"/>
-      <c r="F38" s="225"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="212"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
     </row>
@@ -11318,15 +11319,15 @@
       <c r="B41" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="236"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="237"/>
+      <c r="G41" s="232"/>
       <c r="H41" s="63" t="s">
         <v>14</v>
       </c>
@@ -11334,59 +11335,59 @@
     <row r="42" spans="1:10" ht="20.25" customHeight="1">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
-      <c r="C42" s="207" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
-      <c r="F42" s="207" t="s">
+      <c r="C42" s="215" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="216"/>
+      <c r="E42" s="217"/>
+      <c r="F42" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="209"/>
-      <c r="H42" s="207" t="s">
-        <v>146</v>
-      </c>
-      <c r="I42" s="208"/>
-      <c r="J42" s="209"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="215" t="s">
+        <v>145</v>
+      </c>
+      <c r="I42" s="216"/>
+      <c r="J42" s="217"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1">
       <c r="A43" s="105"/>
       <c r="B43" s="106"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="239"/>
-      <c r="E43" s="240"/>
-      <c r="F43" s="238"/>
-      <c r="G43" s="240"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="227"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="223"/>
+      <c r="C44" s="207"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="209"/>
       <c r="H44" s="93"/>
     </row>
     <row r="45" spans="1:10" ht="20.25" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="222"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="221"/>
-      <c r="G45" s="223"/>
+      <c r="C45" s="207"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="207"/>
+      <c r="G45" s="209"/>
       <c r="H45" s="93"/>
     </row>
     <row r="46" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="94"/>
       <c r="B46" s="95"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="235"/>
-      <c r="E46" s="225"/>
-      <c r="F46" s="241"/>
-      <c r="G46" s="242"/>
+      <c r="C46" s="210"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="214"/>
       <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1">
@@ -11418,15 +11419,15 @@
       <c r="B49" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="226" t="s">
+      <c r="C49" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="236"/>
-      <c r="E49" s="227"/>
-      <c r="F49" s="215" t="s">
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="243"/>
+      <c r="G49" s="224"/>
       <c r="H49" s="57" t="s">
         <v>17</v>
       </c>
@@ -11434,93 +11435,55 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="88"/>
       <c r="B50" s="89"/>
-      <c r="C50" s="230"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="232"/>
+      <c r="C50" s="218"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="219"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="219"/>
       <c r="H50" s="90"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="223"/>
+      <c r="C51" s="207"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="207"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="93"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="221"/>
-      <c r="G52" s="223"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
-      <c r="C53" s="221"/>
-      <c r="D53" s="222"/>
-      <c r="E53" s="223"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="223"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="93"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="94"/>
       <c r="B54" s="95"/>
-      <c r="C54" s="224"/>
-      <c r="D54" s="235"/>
-      <c r="E54" s="225"/>
-      <c r="F54" s="241"/>
-      <c r="G54" s="242"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
+      <c r="G54" s="214"/>
       <c r="H54" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -11537,6 +11500,44 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11605,10 +11606,10 @@
       <c r="K2" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="193">
+      <c r="L2" s="166">
         <v>43971</v>
       </c>
-      <c r="M2" s="195"/>
+      <c r="M2" s="168"/>
       <c r="N2" s="159"/>
       <c r="O2" s="159"/>
     </row>
@@ -11630,8 +11631,8 @@
       <c r="K3" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="261"/>
-      <c r="M3" s="262"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="259"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="109" t="s">
@@ -11649,8 +11650,8 @@
       <c r="K4" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="261"/>
-      <c r="M4" s="262"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="259"/>
     </row>
     <row r="5" spans="1:15" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -11722,14 +11723,14 @@
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="122"/>
-      <c r="G9" s="263" t="s">
+      <c r="G9" s="260" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="264"/>
-      <c r="L9" s="265"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="262"/>
       <c r="M9" s="120"/>
     </row>
     <row r="10" spans="1:15" ht="21.75" customHeight="1">
@@ -11752,7 +11753,7 @@
         <v>69</v>
       </c>
       <c r="K10" s="126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="126" t="s">
         <v>67</v>
@@ -11761,17 +11762,17 @@
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="263" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="258" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="260"/>
+      <c r="C11" s="255" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="257"/>
       <c r="G11" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="126"/>
       <c r="I11" s="126"/>
@@ -11782,15 +11783,15 @@
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="258" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="259"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="260"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="255" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="257"/>
       <c r="G12" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="126"/>
@@ -11801,15 +11802,15 @@
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="258" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="260"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="255" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="257"/>
       <c r="G13" s="126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" s="126"/>
       <c r="I13" s="126"/>
@@ -11820,15 +11821,15 @@
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="256"/>
-      <c r="C14" s="258" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="260"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="255" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="256"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="257"/>
       <c r="G14" s="126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" s="126"/>
       <c r="I14" s="126"/>
@@ -11839,15 +11840,15 @@
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="256"/>
-      <c r="C15" s="258" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="260"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="255" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="257"/>
       <c r="G15" s="126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="126"/>
       <c r="I15" s="126"/>
@@ -11858,19 +11859,19 @@
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="256"/>
-      <c r="C16" s="258" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="260"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="255" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="257"/>
       <c r="G16" s="126"/>
       <c r="H16" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I16" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="126"/>
       <c r="K16" s="126"/>
@@ -11879,22 +11880,22 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="258" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="259"/>
-      <c r="E17" s="259"/>
-      <c r="F17" s="260"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="255" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="257"/>
       <c r="G17" s="126"/>
       <c r="H17" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I17" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J17" s="126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K17" s="126"/>
       <c r="L17" s="126"/>
@@ -11902,20 +11903,20 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="256"/>
-      <c r="C18" s="258" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="259"/>
-      <c r="E18" s="259"/>
-      <c r="F18" s="260"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="255" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="256"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="257"/>
       <c r="G18" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="126"/>
       <c r="I18" s="126"/>
       <c r="J18" s="126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K18" s="126"/>
       <c r="L18" s="126"/>
@@ -11923,36 +11924,36 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="256"/>
-      <c r="C19" s="258" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="259"/>
-      <c r="E19" s="259"/>
-      <c r="F19" s="260"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="255" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="256"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="257"/>
       <c r="G19" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="126"/>
       <c r="I19" s="126"/>
       <c r="J19" s="126"/>
       <c r="K19" s="126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L19" s="126"/>
       <c r="M19" s="120"/>
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="256"/>
-      <c r="C20" s="258" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="259"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="260"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="255" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="256"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="257"/>
       <c r="G20" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="126"/>
       <c r="I20" s="126"/>
@@ -11963,54 +11964,54 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="256"/>
-      <c r="C21" s="258" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="260"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="255" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="257"/>
       <c r="G21" s="126"/>
       <c r="H21" s="126"/>
       <c r="I21" s="126"/>
       <c r="J21" s="126"/>
       <c r="K21" s="126"/>
       <c r="L21" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M21" s="120"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="256"/>
-      <c r="C22" s="258" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="259"/>
-      <c r="E22" s="259"/>
-      <c r="F22" s="260"/>
+      <c r="B22" s="264"/>
+      <c r="C22" s="255" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="257"/>
       <c r="G22" s="126"/>
       <c r="H22" s="126"/>
       <c r="I22" s="126"/>
       <c r="J22" s="126"/>
       <c r="K22" s="126"/>
       <c r="L22" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M22" s="120"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="256"/>
-      <c r="C23" s="258" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="260"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="257"/>
       <c r="G23" s="126"/>
       <c r="H23" s="126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I23" s="126"/>
       <c r="J23" s="126"/>
@@ -12020,16 +12021,16 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="256"/>
-      <c r="C24" s="258" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="259"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="260"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="255" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="126"/>
       <c r="H24" s="126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I24" s="126"/>
       <c r="J24" s="126"/>
@@ -12039,16 +12040,16 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="256"/>
-      <c r="C25" s="258" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="259"/>
-      <c r="E25" s="259"/>
-      <c r="F25" s="260"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="255" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="256"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="257"/>
       <c r="G25" s="126"/>
       <c r="H25" s="126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I25" s="126"/>
       <c r="J25" s="126"/>
@@ -12058,28 +12059,28 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="258" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="259"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="260"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="256"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="257"/>
       <c r="G26" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H26" s="126"/>
       <c r="I26" s="126"/>
       <c r="J26" s="126"/>
       <c r="K26" s="126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L26" s="126"/>
       <c r="M26" s="120"/>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="256"/>
+      <c r="B27" s="264"/>
       <c r="C27" s="127"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140"/>
@@ -12094,7 +12095,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="256"/>
+      <c r="B28" s="264"/>
       <c r="C28" s="127"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140"/>
@@ -12109,7 +12110,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="256"/>
+      <c r="B29" s="264"/>
       <c r="C29" s="127"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140"/>
@@ -12124,7 +12125,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="256"/>
+      <c r="B30" s="264"/>
       <c r="C30" s="127"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
@@ -12139,7 +12140,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="256"/>
+      <c r="B31" s="264"/>
       <c r="C31" s="127"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140"/>
@@ -12154,11 +12155,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="256"/>
-      <c r="C32" s="258"/>
-      <c r="D32" s="259"/>
-      <c r="E32" s="259"/>
-      <c r="F32" s="260"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="255"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="257"/>
       <c r="G32" s="126"/>
       <c r="H32" s="126"/>
       <c r="I32" s="126"/>
@@ -12169,11 +12170,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="258"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="259"/>
-      <c r="F33" s="260"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="257"/>
       <c r="G33" s="126"/>
       <c r="H33" s="126"/>
       <c r="I33" s="126"/>
@@ -12184,11 +12185,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="118"/>
-      <c r="B34" s="256"/>
-      <c r="C34" s="258"/>
-      <c r="D34" s="259"/>
-      <c r="E34" s="259"/>
-      <c r="F34" s="260"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="255"/>
+      <c r="D34" s="256"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="257"/>
       <c r="G34" s="126"/>
       <c r="H34" s="126"/>
       <c r="I34" s="126"/>
@@ -12199,11 +12200,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="118"/>
-      <c r="B35" s="256"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="259"/>
-      <c r="E35" s="259"/>
-      <c r="F35" s="260"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="257"/>
       <c r="G35" s="126"/>
       <c r="H35" s="126"/>
       <c r="I35" s="126"/>
@@ -12214,11 +12215,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="118"/>
-      <c r="B36" s="257"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="260"/>
+      <c r="B36" s="265"/>
+      <c r="C36" s="255"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="257"/>
       <c r="G36" s="126"/>
       <c r="H36" s="126"/>
       <c r="I36" s="126"/>
@@ -12259,16 +12260,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -12285,6 +12276,16 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12293,21 +12294,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E4BA36D546265442A08A19E41F1D1BDD" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2e8dd8e6999d741a1c3eb6ca27f596d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d868ab53af1b141f55385f9a789c4e3" ns2:_="">
     <xsd:import namespace="efbfc87b-5ed5-4f5d-b6fa-67edb1423f3f"/>
@@ -12439,24 +12425,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5611681E-FFDA-4FE6-A588-CE730F72FDC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12472,4 +12456,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87C0EB24-2750-4F4F-A61B-57ABA9907FFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CBF72BD-AB54-43CB-BBC9-F922FCB9F852}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>